--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H2">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I2">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J2">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.5692737915888</v>
+        <v>10.62804133333333</v>
       </c>
       <c r="N2">
-        <v>10.5692737915888</v>
+        <v>31.884124</v>
       </c>
       <c r="O2">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="P2">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="Q2">
-        <v>25.29473648432153</v>
+        <v>25.94707337965156</v>
       </c>
       <c r="R2">
-        <v>25.29473648432153</v>
+        <v>233.523660416864</v>
       </c>
       <c r="S2">
-        <v>0.02253530753453728</v>
+        <v>0.02129471486053075</v>
       </c>
       <c r="T2">
-        <v>0.02253530753453728</v>
+        <v>0.02129471486053075</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H3">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I3">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J3">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.3653652832543</v>
+        <v>26.47935433333333</v>
       </c>
       <c r="N3">
-        <v>26.3653652832543</v>
+        <v>79.438063</v>
       </c>
       <c r="O3">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559845</v>
       </c>
       <c r="P3">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559846</v>
       </c>
       <c r="Q3">
-        <v>63.09846639449633</v>
+        <v>64.64613077650755</v>
       </c>
       <c r="R3">
-        <v>63.09846639449633</v>
+        <v>581.8151769885679</v>
       </c>
       <c r="S3">
-        <v>0.05621498947178221</v>
+        <v>0.05305495928499958</v>
       </c>
       <c r="T3">
-        <v>0.05621498947178221</v>
+        <v>0.05305495928499959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H4">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I4">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J4">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.51700743896387</v>
+        <v>5.626917</v>
       </c>
       <c r="N4">
-        <v>5.51700743896387</v>
+        <v>16.880751</v>
       </c>
       <c r="O4">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454893</v>
       </c>
       <c r="P4">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454894</v>
       </c>
       <c r="Q4">
-        <v>13.20348513080339</v>
+        <v>13.737435122904</v>
       </c>
       <c r="R4">
-        <v>13.20348513080339</v>
+        <v>123.636916106136</v>
       </c>
       <c r="S4">
-        <v>0.01176310328968131</v>
+        <v>0.01127428745342413</v>
       </c>
       <c r="T4">
-        <v>0.01176310328968131</v>
+        <v>0.01127428745342413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H5">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I5">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J5">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.29842157658368</v>
+        <v>5.317432666666666</v>
       </c>
       <c r="N5">
-        <v>5.29842157658368</v>
+        <v>15.952298</v>
       </c>
       <c r="O5">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939111</v>
       </c>
       <c r="P5">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939114</v>
       </c>
       <c r="Q5">
-        <v>12.68035819728548</v>
+        <v>12.98186667383644</v>
       </c>
       <c r="R5">
-        <v>12.68035819728548</v>
+        <v>116.836800064528</v>
       </c>
       <c r="S5">
-        <v>0.01129704481408768</v>
+        <v>0.01065419383264897</v>
       </c>
       <c r="T5">
-        <v>0.01129704481408768</v>
+        <v>0.01065419383264897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.39323315708327</v>
+        <v>2.441378666666667</v>
       </c>
       <c r="H6">
-        <v>2.39323315708327</v>
+        <v>7.324135999999999</v>
       </c>
       <c r="I6">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="J6">
-        <v>0.1165830302734348</v>
+        <v>0.1119936059016048</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.92848309088656</v>
+        <v>7.84347</v>
       </c>
       <c r="N6">
-        <v>6.92848309088656</v>
+        <v>23.53041</v>
       </c>
       <c r="O6">
-        <v>0.1267129969833396</v>
+        <v>0.1403245332042314</v>
       </c>
       <c r="P6">
-        <v>0.1267129969833396</v>
+        <v>0.1403245332042315</v>
       </c>
       <c r="Q6">
-        <v>16.58147546140049</v>
+        <v>19.14888033064</v>
       </c>
       <c r="R6">
-        <v>16.58147546140049</v>
+        <v>172.33992297576</v>
       </c>
       <c r="S6">
-        <v>0.01477258516334634</v>
+        <v>0.01571545047000135</v>
       </c>
       <c r="T6">
-        <v>0.01477258516334634</v>
+        <v>0.01571545047000135</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H7">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I7">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J7">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.5692737915888</v>
+        <v>10.62804133333333</v>
       </c>
       <c r="N7">
-        <v>10.5692737915888</v>
+        <v>31.884124</v>
       </c>
       <c r="O7">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="P7">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="Q7">
-        <v>134.302429565372</v>
+        <v>136.9505882815182</v>
       </c>
       <c r="R7">
-        <v>134.302429565372</v>
+        <v>1232.555294533664</v>
       </c>
       <c r="S7">
-        <v>0.1196512386981038</v>
+        <v>0.112395093071419</v>
       </c>
       <c r="T7">
-        <v>0.1196512386981038</v>
+        <v>0.112395093071419</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H8">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I8">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J8">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.3653652832543</v>
+        <v>26.47935433333333</v>
       </c>
       <c r="N8">
-        <v>26.3653652832543</v>
+        <v>79.438063</v>
       </c>
       <c r="O8">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559845</v>
       </c>
       <c r="P8">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559846</v>
       </c>
       <c r="Q8">
-        <v>335.0213726829081</v>
+        <v>341.2070991755742</v>
       </c>
       <c r="R8">
-        <v>335.0213726829081</v>
+        <v>3070.863892580168</v>
       </c>
       <c r="S8">
-        <v>0.2984735448314225</v>
+        <v>0.280028031640394</v>
       </c>
       <c r="T8">
-        <v>0.2984735448314225</v>
+        <v>0.280028031640394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H9">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I9">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J9">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.51700743896387</v>
+        <v>5.626917</v>
       </c>
       <c r="N9">
-        <v>5.51700743896387</v>
+        <v>16.880751</v>
       </c>
       <c r="O9">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454893</v>
       </c>
       <c r="P9">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454894</v>
       </c>
       <c r="Q9">
-        <v>70.10391797899459</v>
+        <v>72.50720703770399</v>
       </c>
       <c r="R9">
-        <v>70.10391797899459</v>
+        <v>652.5648633393361</v>
       </c>
       <c r="S9">
-        <v>0.06245620910151951</v>
+        <v>0.05950652995078206</v>
       </c>
       <c r="T9">
-        <v>0.06245620910151951</v>
+        <v>0.05950652995078207</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H10">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I10">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J10">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.29842157658368</v>
+        <v>5.317432666666666</v>
       </c>
       <c r="N10">
-        <v>5.29842157658368</v>
+        <v>15.952298</v>
       </c>
       <c r="O10">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939111</v>
       </c>
       <c r="P10">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939114</v>
       </c>
       <c r="Q10">
-        <v>67.32637498359371</v>
+        <v>68.51926041756977</v>
       </c>
       <c r="R10">
-        <v>67.32637498359371</v>
+        <v>616.673343758128</v>
       </c>
       <c r="S10">
-        <v>0.05998167114258265</v>
+        <v>0.05623362957730971</v>
       </c>
       <c r="T10">
-        <v>0.05998167114258265</v>
+        <v>0.05623362957730973</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.7068739265939</v>
+        <v>12.88577866666667</v>
       </c>
       <c r="H11">
-        <v>12.7068739265939</v>
+        <v>38.657336</v>
       </c>
       <c r="I11">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="J11">
-        <v>0.6189977200007815</v>
+        <v>0.5911106037886134</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.92848309088656</v>
+        <v>7.84347</v>
       </c>
       <c r="N11">
-        <v>6.92848309088656</v>
+        <v>23.53041</v>
       </c>
       <c r="O11">
-        <v>0.1267129969833396</v>
+        <v>0.1403245332042314</v>
       </c>
       <c r="P11">
-        <v>0.1267129969833396</v>
+        <v>0.1403245332042315</v>
       </c>
       <c r="Q11">
-        <v>88.03936113843314</v>
+        <v>101.06921839864</v>
       </c>
       <c r="R11">
-        <v>88.03936113843314</v>
+        <v>909.6229655877601</v>
       </c>
       <c r="S11">
-        <v>0.07843505622715313</v>
+        <v>0.08294731954870857</v>
       </c>
       <c r="T11">
-        <v>0.07843505622715313</v>
+        <v>0.08294731954870858</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H12">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I12">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J12">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.5692737915888</v>
+        <v>10.62804133333333</v>
       </c>
       <c r="N12">
-        <v>10.5692737915888</v>
+        <v>31.884124</v>
       </c>
       <c r="O12">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="P12">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="Q12">
-        <v>57.37040139983189</v>
+        <v>68.78586322192135</v>
       </c>
       <c r="R12">
-        <v>57.37040139983189</v>
+        <v>619.0727689972921</v>
       </c>
       <c r="S12">
-        <v>0.05111180500838246</v>
+        <v>0.05645243000295375</v>
       </c>
       <c r="T12">
-        <v>0.05111180500838246</v>
+        <v>0.05645243000295375</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H13">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I13">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J13">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.3653652832543</v>
+        <v>26.47935433333333</v>
       </c>
       <c r="N13">
-        <v>26.3653652832543</v>
+        <v>79.438063</v>
       </c>
       <c r="O13">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559845</v>
       </c>
       <c r="P13">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559846</v>
       </c>
       <c r="Q13">
-        <v>143.1121588086058</v>
+        <v>171.3773204536644</v>
       </c>
       <c r="R13">
-        <v>143.1121588086058</v>
+        <v>1542.395884082979</v>
       </c>
       <c r="S13">
-        <v>0.1274999054717361</v>
+        <v>0.140649048130591</v>
       </c>
       <c r="T13">
-        <v>0.1274999054717361</v>
+        <v>0.140649048130591</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H14">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I14">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J14">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.51700743896387</v>
+        <v>5.626917</v>
       </c>
       <c r="N14">
-        <v>5.51700743896387</v>
+        <v>16.880751</v>
       </c>
       <c r="O14">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454893</v>
       </c>
       <c r="P14">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454894</v>
       </c>
       <c r="Q14">
-        <v>29.94651643437432</v>
+        <v>36.41803141178701</v>
       </c>
       <c r="R14">
-        <v>29.94651643437432</v>
+        <v>327.7622827060831</v>
       </c>
       <c r="S14">
-        <v>0.02667962000137837</v>
+        <v>0.02988821064128315</v>
       </c>
       <c r="T14">
-        <v>0.02667962000137837</v>
+        <v>0.02988821064128315</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H15">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I15">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J15">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.29842157658368</v>
+        <v>5.317432666666666</v>
       </c>
       <c r="N15">
-        <v>5.29842157658368</v>
+        <v>15.952298</v>
       </c>
       <c r="O15">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939111</v>
       </c>
       <c r="P15">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939114</v>
       </c>
       <c r="Q15">
-        <v>28.76002444709514</v>
+        <v>34.41501445369267</v>
       </c>
       <c r="R15">
-        <v>28.76002444709514</v>
+        <v>309.735130083234</v>
       </c>
       <c r="S15">
-        <v>0.0256225636514467</v>
+        <v>0.02824433834943243</v>
       </c>
       <c r="T15">
-        <v>0.0256225636514467</v>
+        <v>0.02824433834943244</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.42803626162927</v>
+        <v>6.472111000000001</v>
       </c>
       <c r="H16">
-        <v>5.42803626162927</v>
+        <v>19.416333</v>
       </c>
       <c r="I16">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097819</v>
       </c>
       <c r="J16">
-        <v>0.2644192497257838</v>
+        <v>0.2968957903097818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.92848309088656</v>
+        <v>7.84347</v>
       </c>
       <c r="N16">
-        <v>6.92848309088656</v>
+        <v>23.53041</v>
       </c>
       <c r="O16">
-        <v>0.1267129969833396</v>
+        <v>0.1403245332042314</v>
       </c>
       <c r="P16">
-        <v>0.1267129969833396</v>
+        <v>0.1403245332042315</v>
       </c>
       <c r="Q16">
-        <v>37.60805745541749</v>
+        <v>50.76380846517001</v>
       </c>
       <c r="R16">
-        <v>37.60805745541749</v>
+        <v>456.87427618653</v>
       </c>
       <c r="S16">
-        <v>0.03350535559284017</v>
+        <v>0.04166176318552152</v>
       </c>
       <c r="T16">
-        <v>0.03350535559284017</v>
+        <v>0.04166176318552152</v>
       </c>
     </row>
   </sheetData>
